--- a/merge/2014/data_linkedin/compiled_matches.xlsx
+++ b/merge/2014/data_linkedin/compiled_matches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel Nunes\Desktop\merge\2014\data_linkedin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745790C2-B5FC-45C1-B402-D7ED383DB403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF891359-2533-4355-B1BD-9BFF487D1F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2775" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -3622,9 +3622,6 @@
     <t>raquel-pos-de-mina</t>
   </si>
   <si>
-    <t>raquel dos santos zacarias</t>
-  </si>
-  <si>
     <t>raquel-brandão-9b89a0110</t>
   </si>
   <si>
@@ -4723,9 +4720,6 @@
     <t>adriana-justo-correia-598429240</t>
   </si>
   <si>
-    <t>afonso-v-b8713711</t>
-  </si>
-  <si>
     <t>alicegmonteiro</t>
   </si>
   <si>
@@ -5090,6 +5084,12 @@
   </si>
   <si>
     <t>pedro-antunes-a8b4bb152</t>
+  </si>
+  <si>
+    <t>raquel-zacarias-6996b4138</t>
+  </si>
+  <si>
+    <t>afonso-v-b87137114</t>
   </si>
 </sst>
 </file>
@@ -5425,8 +5425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1174" workbookViewId="0">
-      <selection activeCell="F1188" sqref="F1188"/>
+    <sheetView tabSelected="1" topLeftCell="A850" workbookViewId="0">
+      <selection activeCell="G861" sqref="G861"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6113,7 +6113,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="B86">
         <v>14899371</v>
@@ -10945,7 +10945,7 @@
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="B690">
         <v>14666128</v>
@@ -12377,7 +12377,7 @@
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="B869">
         <v>15034853</v>
@@ -14921,7 +14921,7 @@
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1187" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="B1187">
         <v>14922871</v>
@@ -15057,7 +15057,7 @@
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1204" t="s">
-        <v>1200</v>
+        <v>1688</v>
       </c>
       <c r="B1204">
         <v>14087723</v>
@@ -15065,7 +15065,7 @@
     </row>
     <row r="1205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1205" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B1205">
         <v>15130513</v>
@@ -15073,7 +15073,7 @@
     </row>
     <row r="1206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1206" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B1206">
         <v>15039993</v>
@@ -15081,7 +15081,7 @@
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1207" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B1207">
         <v>14195216</v>
@@ -15089,7 +15089,7 @@
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1208" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B1208">
         <v>14676979</v>
@@ -15097,7 +15097,7 @@
     </row>
     <row r="1209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1209" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B1209">
         <v>14157067</v>
@@ -15105,7 +15105,7 @@
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1210" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B1210">
         <v>15031918</v>
@@ -15113,7 +15113,7 @@
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1211" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B1211">
         <v>14859858</v>
@@ -15121,7 +15121,7 @@
     </row>
     <row r="1212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1212" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B1212">
         <v>13863884</v>
@@ -15129,7 +15129,7 @@
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1213" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B1213">
         <v>14410099</v>
@@ -15137,7 +15137,7 @@
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1214" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B1214">
         <v>10354470</v>
@@ -15145,7 +15145,7 @@
     </row>
     <row r="1215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1215" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B1215">
         <v>14406108</v>
@@ -15153,7 +15153,7 @@
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1216" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B1216">
         <v>13730016</v>
@@ -15161,7 +15161,7 @@
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1217" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B1217">
         <v>15028111</v>
@@ -15169,7 +15169,7 @@
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1218" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B1218">
         <v>14955567</v>
@@ -15177,7 +15177,7 @@
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1219" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B1219">
         <v>15154649</v>
@@ -15185,7 +15185,7 @@
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1220" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B1220">
         <v>14748377</v>
@@ -15193,7 +15193,7 @@
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1221" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B1221">
         <v>15077073</v>
@@ -15201,7 +15201,7 @@
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1222" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B1222">
         <v>14201357</v>
@@ -15209,7 +15209,7 @@
     </row>
     <row r="1223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1223" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B1223">
         <v>15011686</v>
@@ -15217,7 +15217,7 @@
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1224" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B1224">
         <v>14425617</v>
@@ -15225,7 +15225,7 @@
     </row>
     <row r="1225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1225" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B1225">
         <v>14586502</v>
@@ -15233,7 +15233,7 @@
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1226" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B1226">
         <v>15137925</v>
@@ -15241,7 +15241,7 @@
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1227" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B1227">
         <v>15039790</v>
@@ -15249,7 +15249,7 @@
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1228" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B1228">
         <v>14037231</v>
@@ -15257,7 +15257,7 @@
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1229" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B1229">
         <v>14708158</v>
@@ -15265,7 +15265,7 @@
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1230" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B1230">
         <v>14428467</v>
@@ -15273,7 +15273,7 @@
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1231" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B1231">
         <v>14947775</v>
@@ -15281,7 +15281,7 @@
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1232" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B1232">
         <v>14606790</v>
@@ -15289,7 +15289,7 @@
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1233" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B1233">
         <v>14544137</v>
@@ -15297,7 +15297,7 @@
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1234" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B1234">
         <v>14244832</v>
@@ -15305,7 +15305,7 @@
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1235" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B1235">
         <v>14737251</v>
@@ -15313,7 +15313,7 @@
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1236" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B1236">
         <v>14749447</v>
@@ -15321,7 +15321,7 @@
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1237" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B1237">
         <v>14914604</v>
@@ -15329,7 +15329,7 @@
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1238" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B1238">
         <v>14301644</v>
@@ -15337,7 +15337,7 @@
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1239" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B1239">
         <v>15152033</v>
@@ -15345,7 +15345,7 @@
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1240" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B1240">
         <v>14902206</v>
@@ -15353,7 +15353,7 @@
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1241" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B1241">
         <v>13650936</v>
@@ -15361,7 +15361,7 @@
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1242" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B1242">
         <v>14405469</v>
@@ -15369,7 +15369,7 @@
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1243" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B1243">
         <v>15159287</v>
@@ -15377,7 +15377,7 @@
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1244" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B1244">
         <v>14847700</v>
@@ -15385,7 +15385,7 @@
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1245" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B1245">
         <v>13908722</v>
@@ -15393,7 +15393,7 @@
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1246" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B1246">
         <v>13998264</v>
@@ -15401,7 +15401,7 @@
     </row>
     <row r="1247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1247" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B1247">
         <v>14219803</v>
@@ -15409,7 +15409,7 @@
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1248" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B1248">
         <v>14210678</v>
@@ -15417,7 +15417,7 @@
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1249" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B1249">
         <v>13947089</v>
@@ -15425,7 +15425,7 @@
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1250" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B1250">
         <v>15114035</v>
@@ -15433,7 +15433,7 @@
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1251" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B1251">
         <v>14740570</v>
@@ -15441,7 +15441,7 @@
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1252" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B1252">
         <v>15079134</v>
@@ -15449,7 +15449,7 @@
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1253" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B1253">
         <v>14307756</v>
@@ -15457,7 +15457,7 @@
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1254" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B1254">
         <v>14300592</v>
@@ -15465,7 +15465,7 @@
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1255" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B1255">
         <v>15028992</v>
@@ -15473,7 +15473,7 @@
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1256" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B1256">
         <v>15178155</v>
@@ -15481,7 +15481,7 @@
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1257" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B1257">
         <v>15066379</v>
@@ -15489,7 +15489,7 @@
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1258" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B1258">
         <v>14920883</v>
@@ -15497,7 +15497,7 @@
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1259" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B1259">
         <v>14124583</v>
@@ -15505,7 +15505,7 @@
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1260" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B1260">
         <v>13354620</v>
@@ -15513,7 +15513,7 @@
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1261" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1261">
         <v>14602443</v>
@@ -15521,7 +15521,7 @@
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1262" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1262">
         <v>15070642</v>
@@ -15529,7 +15529,7 @@
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1263" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1263">
         <v>13925279</v>
@@ -15537,7 +15537,7 @@
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1264" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B1264">
         <v>14782699</v>
@@ -15545,7 +15545,7 @@
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1265" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1265">
         <v>13896139</v>
@@ -15553,7 +15553,7 @@
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1266" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B1266">
         <v>14351209</v>
@@ -15561,7 +15561,7 @@
     </row>
     <row r="1267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1267" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B1267">
         <v>15042143</v>
@@ -15569,7 +15569,7 @@
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1268" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1268">
         <v>15084527</v>
@@ -15577,7 +15577,7 @@
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1269" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B1269">
         <v>14087656</v>
@@ -15585,7 +15585,7 @@
     </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1270" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B1270">
         <v>14477455</v>
@@ -15593,7 +15593,7 @@
     </row>
     <row r="1271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1271" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B1271">
         <v>14696358</v>
@@ -15601,7 +15601,7 @@
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1272" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B1272">
         <v>15015415</v>
@@ -15609,7 +15609,7 @@
     </row>
     <row r="1273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1273" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B1273">
         <v>14783994</v>
@@ -15617,7 +15617,7 @@
     </row>
     <row r="1274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1274" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B1274">
         <v>14290426</v>
@@ -15625,7 +15625,7 @@
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1275" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B1275">
         <v>14233512</v>
@@ -15633,7 +15633,7 @@
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1276" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B1276">
         <v>14707243</v>
@@ -15641,7 +15641,7 @@
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1277" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B1277">
         <v>14936544</v>
@@ -15649,7 +15649,7 @@
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1278" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B1278">
         <v>30701635</v>
@@ -15657,7 +15657,7 @@
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1279" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B1279">
         <v>14296684</v>
@@ -15665,7 +15665,7 @@
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1280" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B1280">
         <v>14859384</v>
@@ -15673,7 +15673,7 @@
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1281" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B1281">
         <v>14922501</v>
@@ -15681,7 +15681,7 @@
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1282" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B1282">
         <v>14414964</v>
@@ -15689,7 +15689,7 @@
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1283" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B1283">
         <v>14531376</v>
@@ -15697,7 +15697,7 @@
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1284" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B1284">
         <v>15175602</v>
@@ -15705,7 +15705,7 @@
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1285" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B1285">
         <v>15031890</v>
@@ -15713,7 +15713,7 @@
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1286" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B1286">
         <v>13640525</v>
@@ -15721,7 +15721,7 @@
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1287" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B1287">
         <v>14579165</v>
@@ -15729,7 +15729,7 @@
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1288" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B1288">
         <v>15156272</v>
@@ -15737,7 +15737,7 @@
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1289" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B1289">
         <v>14297627</v>
@@ -15745,7 +15745,7 @@
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1290" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B1290">
         <v>15139053</v>
@@ -15753,7 +15753,7 @@
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1291" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B1291">
         <v>14971061</v>
@@ -15761,7 +15761,7 @@
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1292" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B1292">
         <v>14853129</v>
@@ -15769,7 +15769,7 @@
     </row>
     <row r="1293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1293" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B1293">
         <v>13861573</v>
@@ -15777,7 +15777,7 @@
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1294" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B1294">
         <v>13456374</v>
@@ -15785,7 +15785,7 @@
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1295" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B1295">
         <v>15067064</v>
@@ -15793,7 +15793,7 @@
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1296" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B1296">
         <v>14786623</v>
@@ -15801,7 +15801,7 @@
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1297" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B1297">
         <v>15110660</v>
@@ -15809,7 +15809,7 @@
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1298" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B1298">
         <v>15089374</v>
@@ -15817,7 +15817,7 @@
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1299" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B1299">
         <v>15008356</v>
@@ -15825,7 +15825,7 @@
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1300" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B1300">
         <v>14958595</v>
@@ -15833,7 +15833,7 @@
     </row>
     <row r="1301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1301" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B1301">
         <v>14415151</v>
@@ -15841,7 +15841,7 @@
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1302" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B1302">
         <v>14603363</v>
@@ -15849,7 +15849,7 @@
     </row>
     <row r="1303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1303" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B1303">
         <v>14679002</v>
@@ -15857,7 +15857,7 @@
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1304" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B1304">
         <v>14371915</v>
@@ -15865,7 +15865,7 @@
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1305" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B1305">
         <v>15127347</v>
@@ -15873,7 +15873,7 @@
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1306" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B1306">
         <v>14840687</v>
@@ -15881,7 +15881,7 @@
     </row>
     <row r="1307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1307" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B1307">
         <v>14311837</v>
@@ -15889,7 +15889,7 @@
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1308" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B1308">
         <v>14825152</v>
@@ -15897,7 +15897,7 @@
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1309" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B1309">
         <v>15071871</v>
@@ -15905,7 +15905,7 @@
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1310" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B1310">
         <v>14749631</v>
@@ -15913,7 +15913,7 @@
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1311" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B1311">
         <v>14472080</v>
@@ -15921,7 +15921,7 @@
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1312" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B1312">
         <v>14714624</v>
@@ -15929,7 +15929,7 @@
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1313" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B1313">
         <v>13657637</v>
@@ -15937,7 +15937,7 @@
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1314" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B1314">
         <v>14436294</v>
@@ -15945,7 +15945,7 @@
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1315" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B1315">
         <v>15147126</v>
@@ -15953,7 +15953,7 @@
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1316" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B1316">
         <v>15138989</v>
@@ -15961,7 +15961,7 @@
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1317" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B1317">
         <v>14432526</v>
@@ -15969,7 +15969,7 @@
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1318" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B1318">
         <v>14671508</v>
@@ -15977,7 +15977,7 @@
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1319" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B1319">
         <v>14473242</v>
@@ -15985,7 +15985,7 @@
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1320" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B1320">
         <v>13899630</v>
@@ -15993,7 +15993,7 @@
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1321" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B1321">
         <v>15088035</v>
@@ -16001,7 +16001,7 @@
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1322" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B1322">
         <v>14926805</v>
@@ -16009,7 +16009,7 @@
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1323" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B1323">
         <v>14531111</v>
@@ -16017,7 +16017,7 @@
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1324" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B1324">
         <v>14104050</v>
@@ -16025,7 +16025,7 @@
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1325" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B1325">
         <v>14168709</v>
@@ -16033,7 +16033,7 @@
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1326" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B1326">
         <v>13262366</v>
@@ -16041,7 +16041,7 @@
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1327" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B1327">
         <v>14319662</v>
@@ -16049,7 +16049,7 @@
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1328" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B1328">
         <v>14827547</v>
@@ -16057,7 +16057,7 @@
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1329" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B1329">
         <v>14766201</v>
@@ -16065,7 +16065,7 @@
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1330" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B1330">
         <v>14809361</v>
@@ -16073,7 +16073,7 @@
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1331" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B1331">
         <v>15122683</v>
@@ -16081,7 +16081,7 @@
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1332" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B1332">
         <v>15081450</v>
@@ -16089,7 +16089,7 @@
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1333" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B1333">
         <v>14373304</v>
@@ -16097,7 +16097,7 @@
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1334" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B1334">
         <v>13936013</v>
@@ -16105,7 +16105,7 @@
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1335" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B1335">
         <v>15060827</v>
@@ -16113,7 +16113,7 @@
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1336" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B1336">
         <v>13638902</v>
@@ -16121,7 +16121,7 @@
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1337" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B1337">
         <v>13707248</v>
@@ -16129,7 +16129,7 @@
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1338" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B1338">
         <v>14673661</v>
@@ -16137,7 +16137,7 @@
     </row>
     <row r="1339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1339" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B1339">
         <v>14921673</v>
@@ -16145,7 +16145,7 @@
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1340" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B1340">
         <v>15159269</v>
@@ -16153,7 +16153,7 @@
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1341" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B1341">
         <v>13177774</v>
@@ -16161,7 +16161,7 @@
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1342" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B1342">
         <v>14419591</v>
@@ -16169,7 +16169,7 @@
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1343" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B1343">
         <v>24046103</v>
@@ -16177,7 +16177,7 @@
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1344" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B1344">
         <v>14678847</v>
@@ -16185,7 +16185,7 @@
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1345" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B1345">
         <v>14601270</v>
@@ -16193,7 +16193,7 @@
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1346" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B1346">
         <v>15063472</v>
@@ -16201,7 +16201,7 @@
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1347" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B1347">
         <v>14585149</v>
@@ -16209,7 +16209,7 @@
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1348" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B1348">
         <v>15284861</v>
@@ -16217,7 +16217,7 @@
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1349" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B1349">
         <v>14738562</v>
@@ -16225,7 +16225,7 @@
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1350" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B1350">
         <v>14169975</v>
@@ -16233,7 +16233,7 @@
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1351" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B1351">
         <v>14194320</v>
@@ -16241,7 +16241,7 @@
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1352" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B1352">
         <v>14542813</v>
@@ -16249,7 +16249,7 @@
     </row>
     <row r="1353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1353" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1353">
         <v>14745700</v>
@@ -16257,7 +16257,7 @@
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1354" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B1354">
         <v>14307302</v>
@@ -16265,7 +16265,7 @@
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1355" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B1355">
         <v>14930656</v>
@@ -16273,7 +16273,7 @@
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1356" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B1356">
         <v>14546513</v>
@@ -16281,7 +16281,7 @@
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1357" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B1357">
         <v>14762331</v>
@@ -16289,7 +16289,7 @@
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1358" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B1358">
         <v>14668745</v>
@@ -16297,7 +16297,7 @@
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1359" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B1359">
         <v>14898774</v>
@@ -16305,7 +16305,7 @@
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1360" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B1360">
         <v>13982546</v>
@@ -16313,7 +16313,7 @@
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1361" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B1361">
         <v>14812632</v>
@@ -16321,7 +16321,7 @@
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1362" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B1362">
         <v>13634805</v>
@@ -16329,7 +16329,7 @@
     </row>
     <row r="1363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1363" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B1363">
         <v>14815627</v>
@@ -16337,7 +16337,7 @@
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1364" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B1364">
         <v>14607682</v>
@@ -16345,7 +16345,7 @@
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1365" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B1365">
         <v>13899650</v>
@@ -16353,7 +16353,7 @@
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1366" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B1366">
         <v>14408124</v>
@@ -16361,7 +16361,7 @@
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1367" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B1367">
         <v>14695750</v>
@@ -16369,7 +16369,7 @@
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1368" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B1368">
         <v>14100011</v>
@@ -16377,7 +16377,7 @@
     </row>
     <row r="1369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1369" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B1369">
         <v>14529438</v>
@@ -16385,7 +16385,7 @@
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1370" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B1370">
         <v>13855028</v>
@@ -16393,7 +16393,7 @@
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1371" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B1371">
         <v>14551389</v>
@@ -16401,7 +16401,7 @@
     </row>
     <row r="1372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1372" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B1372">
         <v>14384986</v>
@@ -16409,7 +16409,7 @@
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1373" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B1373">
         <v>14233325</v>
@@ -16417,7 +16417,7 @@
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1374" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B1374">
         <v>15121995</v>
@@ -16425,7 +16425,7 @@
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1375" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B1375">
         <v>14582715</v>
@@ -16433,7 +16433,7 @@
     </row>
     <row r="1376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1376" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B1376">
         <v>14288942</v>
@@ -16441,7 +16441,7 @@
     </row>
     <row r="1377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1377" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B1377">
         <v>14217531</v>
@@ -16449,7 +16449,7 @@
     </row>
     <row r="1378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1378" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B1378">
         <v>15038619</v>
@@ -16457,7 +16457,7 @@
     </row>
     <row r="1379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1379" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B1379">
         <v>14837311</v>
@@ -16465,7 +16465,7 @@
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1380" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B1380">
         <v>15008048</v>
@@ -16473,7 +16473,7 @@
     </row>
     <row r="1381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1381" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B1381">
         <v>14674430</v>
@@ -16481,7 +16481,7 @@
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1382" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B1382">
         <v>15077201</v>
@@ -16489,7 +16489,7 @@
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1383" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B1383">
         <v>14172659</v>
@@ -16497,7 +16497,7 @@
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1384" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B1384">
         <v>14790583</v>
@@ -16505,7 +16505,7 @@
     </row>
     <row r="1385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1385" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B1385">
         <v>14700417</v>
@@ -16513,7 +16513,7 @@
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1386" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B1386">
         <v>13737942</v>
@@ -16521,7 +16521,7 @@
     </row>
     <row r="1387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1387" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B1387">
         <v>13335329</v>
@@ -16529,7 +16529,7 @@
     </row>
     <row r="1388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1388" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B1388">
         <v>14742833</v>
@@ -16537,7 +16537,7 @@
     </row>
     <row r="1389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1389" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B1389">
         <v>13894591</v>
@@ -16545,7 +16545,7 @@
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1390" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B1390">
         <v>14174404</v>
@@ -16553,7 +16553,7 @@
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1391" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B1391">
         <v>14704106</v>
@@ -16561,7 +16561,7 @@
     </row>
     <row r="1392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1392" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B1392">
         <v>14130637</v>
@@ -16569,7 +16569,7 @@
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1393" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B1393">
         <v>14136603</v>
@@ -16577,7 +16577,7 @@
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1394" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B1394">
         <v>14301851</v>
@@ -16585,7 +16585,7 @@
     </row>
     <row r="1395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1395" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B1395">
         <v>14261248</v>
@@ -16593,7 +16593,7 @@
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1396" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B1396">
         <v>14665770</v>
@@ -16601,7 +16601,7 @@
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1397" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B1397">
         <v>14514571</v>
@@ -16609,7 +16609,7 @@
     </row>
     <row r="1398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1398" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B1398">
         <v>14778092</v>
@@ -16617,7 +16617,7 @@
     </row>
     <row r="1399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1399" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B1399">
         <v>14091630</v>
@@ -16625,7 +16625,7 @@
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1400" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B1400">
         <v>15144776</v>
@@ -16633,7 +16633,7 @@
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1401" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B1401">
         <v>15082709</v>
@@ -16641,7 +16641,7 @@
     </row>
     <row r="1402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1402" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B1402">
         <v>14506308</v>
@@ -16649,7 +16649,7 @@
     </row>
     <row r="1403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1403" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B1403">
         <v>10787935</v>
@@ -16657,7 +16657,7 @@
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1404" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B1404">
         <v>15036108</v>
@@ -16665,7 +16665,7 @@
     </row>
     <row r="1405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1405" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B1405">
         <v>14600639</v>
@@ -16673,7 +16673,7 @@
     </row>
     <row r="1406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1406" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B1406">
         <v>13907731</v>
@@ -16681,7 +16681,7 @@
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1407" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B1407">
         <v>14395479</v>
@@ -16689,7 +16689,7 @@
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1408" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B1408">
         <v>15068994</v>
@@ -16697,7 +16697,7 @@
     </row>
     <row r="1409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1409" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B1409">
         <v>15409754</v>
@@ -16705,7 +16705,7 @@
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1410" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B1410">
         <v>15026347</v>
@@ -16713,7 +16713,7 @@
     </row>
     <row r="1411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1411" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B1411">
         <v>13627393</v>
@@ -16721,7 +16721,7 @@
     </row>
     <row r="1412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1412" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B1412">
         <v>15092032</v>
@@ -16729,7 +16729,7 @@
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1413" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B1413">
         <v>14687017</v>
@@ -16737,7 +16737,7 @@
     </row>
     <row r="1414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1414" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B1414">
         <v>13907534</v>
@@ -16745,7 +16745,7 @@
     </row>
     <row r="1415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1415" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B1415">
         <v>14472108</v>
@@ -16753,7 +16753,7 @@
     </row>
     <row r="1416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1416" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B1416">
         <v>31161166</v>
@@ -16761,7 +16761,7 @@
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1417" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B1417">
         <v>14811954</v>
@@ -16769,7 +16769,7 @@
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1418" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B1418">
         <v>24064307</v>
@@ -16777,7 +16777,7 @@
     </row>
     <row r="1419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1419" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B1419">
         <v>24067503</v>
@@ -16785,7 +16785,7 @@
     </row>
     <row r="1420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1420" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B1420">
         <v>15084000</v>
@@ -16793,7 +16793,7 @@
     </row>
     <row r="1421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1421" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B1421">
         <v>14947986</v>
@@ -16801,7 +16801,7 @@
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1422" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B1422">
         <v>15205377</v>
@@ -16809,7 +16809,7 @@
     </row>
     <row r="1423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1423" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B1423">
         <v>14353221</v>
@@ -16817,7 +16817,7 @@
     </row>
     <row r="1424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1424" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B1424">
         <v>13639026</v>
@@ -16825,7 +16825,7 @@
     </row>
     <row r="1425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1425" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B1425">
         <v>15144412</v>
@@ -16833,7 +16833,7 @@
     </row>
     <row r="1426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1426" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B1426">
         <v>14890321</v>
@@ -16841,7 +16841,7 @@
     </row>
     <row r="1427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1427" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B1427">
         <v>30262815</v>
@@ -16849,7 +16849,7 @@
     </row>
     <row r="1428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1428" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B1428">
         <v>14843741</v>
@@ -16857,7 +16857,7 @@
     </row>
     <row r="1429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1429" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B1429">
         <v>15165718</v>
@@ -16865,7 +16865,7 @@
     </row>
     <row r="1430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1430" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B1430">
         <v>14626815</v>
@@ -16873,7 +16873,7 @@
     </row>
     <row r="1431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1431" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B1431">
         <v>14257351</v>
@@ -16881,7 +16881,7 @@
     </row>
     <row r="1432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1432" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B1432">
         <v>15115890</v>
@@ -16889,7 +16889,7 @@
     </row>
     <row r="1433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1433" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B1433">
         <v>15063206</v>
@@ -16897,7 +16897,7 @@
     </row>
     <row r="1434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1434" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B1434">
         <v>15063143</v>
@@ -16905,7 +16905,7 @@
     </row>
     <row r="1435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1435" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B1435">
         <v>13733434</v>
@@ -16913,7 +16913,7 @@
     </row>
     <row r="1436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1436" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B1436">
         <v>14029078</v>
@@ -16921,7 +16921,7 @@
     </row>
     <row r="1437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1437" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B1437">
         <v>15033065</v>
@@ -16929,7 +16929,7 @@
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1438" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B1438">
         <v>14132131</v>
@@ -16937,7 +16937,7 @@
     </row>
     <row r="1439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1439" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B1439">
         <v>14553192</v>
@@ -16945,7 +16945,7 @@
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1440" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B1440">
         <v>14316579</v>
@@ -16953,7 +16953,7 @@
     </row>
     <row r="1441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1441" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B1441">
         <v>15088083</v>
@@ -16961,7 +16961,7 @@
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1442" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B1442">
         <v>14957003</v>
@@ -16969,7 +16969,7 @@
     </row>
     <row r="1443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1443" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B1443">
         <v>14362297</v>
@@ -16977,7 +16977,7 @@
     </row>
     <row r="1444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1444" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B1444">
         <v>14402675</v>
@@ -16985,7 +16985,7 @@
     </row>
     <row r="1445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1445" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B1445">
         <v>15143792</v>
@@ -16993,7 +16993,7 @@
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1446" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B1446">
         <v>14019967</v>
@@ -17001,7 +17001,7 @@
     </row>
     <row r="1447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1447" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B1447">
         <v>15016228</v>
@@ -17009,7 +17009,7 @@
     </row>
     <row r="1448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1448" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B1448">
         <v>14789600</v>
@@ -17017,7 +17017,7 @@
     </row>
     <row r="1449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1449" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B1449">
         <v>14829833</v>
@@ -17025,7 +17025,7 @@
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1450" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B1450">
         <v>13893142</v>
@@ -17033,7 +17033,7 @@
     </row>
     <row r="1451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1451" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B1451">
         <v>14620367</v>
@@ -17041,7 +17041,7 @@
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1452" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B1452">
         <v>14219301</v>
@@ -17049,7 +17049,7 @@
     </row>
     <row r="1453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1453" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B1453">
         <v>15147630</v>
@@ -17057,7 +17057,7 @@
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1454" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B1454">
         <v>14426296</v>
@@ -17065,7 +17065,7 @@
     </row>
     <row r="1455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1455" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B1455">
         <v>14911762</v>
@@ -17073,7 +17073,7 @@
     </row>
     <row r="1456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1456" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B1456">
         <v>15073868</v>
@@ -17081,7 +17081,7 @@
     </row>
     <row r="1457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1457" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B1457">
         <v>14028808</v>
@@ -17089,7 +17089,7 @@
     </row>
     <row r="1458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1458" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B1458">
         <v>14496518</v>
@@ -17097,7 +17097,7 @@
     </row>
     <row r="1459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1459" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B1459">
         <v>14926620</v>
@@ -17105,7 +17105,7 @@
     </row>
     <row r="1460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1460" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B1460">
         <v>14944025</v>
@@ -17113,7 +17113,7 @@
     </row>
     <row r="1461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1461" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B1461">
         <v>14704728</v>
@@ -17121,7 +17121,7 @@
     </row>
     <row r="1462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1462" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B1462">
         <v>14423172</v>
@@ -17129,7 +17129,7 @@
     </row>
     <row r="1463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1463" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B1463">
         <v>14473634</v>
@@ -17137,7 +17137,7 @@
     </row>
     <row r="1464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1464" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B1464">
         <v>14955226</v>
@@ -17145,7 +17145,7 @@
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1465" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B1465">
         <v>14737714</v>
@@ -17153,7 +17153,7 @@
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1466" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B1466">
         <v>13653391</v>
@@ -17161,7 +17161,7 @@
     </row>
     <row r="1467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1467" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B1467">
         <v>13911322</v>
@@ -17169,7 +17169,7 @@
     </row>
     <row r="1468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1468" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B1468">
         <v>14793418</v>
@@ -17177,7 +17177,7 @@
     </row>
     <row r="1469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1469" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B1469">
         <v>15059328</v>
@@ -17185,7 +17185,7 @@
     </row>
     <row r="1470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1470" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B1470">
         <v>15132853</v>
@@ -17193,7 +17193,7 @@
     </row>
     <row r="1471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1471" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B1471">
         <v>15012627</v>
@@ -17201,7 +17201,7 @@
     </row>
     <row r="1472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1472" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B1472">
         <v>14852075</v>
@@ -17209,7 +17209,7 @@
     </row>
     <row r="1473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1473" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B1473">
         <v>14410427</v>
@@ -17217,7 +17217,7 @@
     </row>
     <row r="1474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1474" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B1474">
         <v>14434432</v>
@@ -17225,7 +17225,7 @@
     </row>
     <row r="1475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1475" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B1475">
         <v>14579848</v>
@@ -17233,7 +17233,7 @@
     </row>
     <row r="1476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1476" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B1476">
         <v>13854998</v>
@@ -17241,7 +17241,7 @@
     </row>
     <row r="1477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1477" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B1477">
         <v>14816257</v>
@@ -17249,7 +17249,7 @@
     </row>
     <row r="1478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1478" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B1478">
         <v>14394878</v>
@@ -17257,7 +17257,7 @@
     </row>
     <row r="1479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1479" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B1479">
         <v>15087223</v>
@@ -17265,7 +17265,7 @@
     </row>
     <row r="1480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1480" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B1480">
         <v>13862212</v>
@@ -17273,7 +17273,7 @@
     </row>
     <row r="1481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1481" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B1481">
         <v>15079659</v>
@@ -17281,7 +17281,7 @@
     </row>
     <row r="1482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1482" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B1482">
         <v>15115267</v>
@@ -17289,7 +17289,7 @@
     </row>
     <row r="1483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1483" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B1483">
         <v>14497709</v>
@@ -17297,7 +17297,7 @@
     </row>
     <row r="1484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1484" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B1484">
         <v>15000028</v>
@@ -17305,7 +17305,7 @@
     </row>
     <row r="1485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1485" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B1485">
         <v>14302952</v>
@@ -17313,7 +17313,7 @@
     </row>
     <row r="1486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1486" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B1486">
         <v>13537715</v>
@@ -17321,7 +17321,7 @@
     </row>
     <row r="1487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1487" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B1487">
         <v>13543685</v>
@@ -17329,7 +17329,7 @@
     </row>
     <row r="1488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1488" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B1488">
         <v>14467920</v>
@@ -17337,7 +17337,7 @@
     </row>
     <row r="1489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1489" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B1489">
         <v>15128415</v>
@@ -17345,7 +17345,7 @@
     </row>
     <row r="1490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1490" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B1490">
         <v>14833818</v>
@@ -17353,7 +17353,7 @@
     </row>
     <row r="1491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1491" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B1491">
         <v>14898881</v>
@@ -17361,7 +17361,7 @@
     </row>
     <row r="1492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1492" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B1492">
         <v>14296423</v>
@@ -17369,7 +17369,7 @@
     </row>
     <row r="1493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1493" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B1493">
         <v>14258421</v>
@@ -17377,7 +17377,7 @@
     </row>
     <row r="1494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1494" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B1494">
         <v>14855076</v>
@@ -17385,7 +17385,7 @@
     </row>
     <row r="1495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1495" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B1495">
         <v>14899905</v>
@@ -17393,7 +17393,7 @@
     </row>
     <row r="1496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1496" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B1496">
         <v>15042547</v>
@@ -17401,7 +17401,7 @@
     </row>
     <row r="1497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1497" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B1497">
         <v>14414287</v>
@@ -17409,7 +17409,7 @@
     </row>
     <row r="1498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1498" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B1498">
         <v>14995947</v>
@@ -17417,7 +17417,7 @@
     </row>
     <row r="1499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1499" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B1499">
         <v>14210149</v>
@@ -17425,7 +17425,7 @@
     </row>
     <row r="1500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1500" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B1500">
         <v>13857856</v>
@@ -17433,7 +17433,7 @@
     </row>
     <row r="1501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1501" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B1501">
         <v>15016984</v>
@@ -17441,7 +17441,7 @@
     </row>
     <row r="1502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1502" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B1502">
         <v>14709118</v>
@@ -17449,7 +17449,7 @@
     </row>
     <row r="1503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1503" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B1503">
         <v>14497427</v>
@@ -17457,7 +17457,7 @@
     </row>
     <row r="1504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1504" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B1504">
         <v>14244698</v>
@@ -17465,7 +17465,7 @@
     </row>
     <row r="1505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1505" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B1505">
         <v>15212215</v>
@@ -17473,7 +17473,7 @@
     </row>
     <row r="1506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1506" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B1506">
         <v>14916889</v>
@@ -17481,7 +17481,7 @@
     </row>
     <row r="1507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1507" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B1507">
         <v>14931970</v>
@@ -17489,7 +17489,7 @@
     </row>
     <row r="1508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1508" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B1508">
         <v>15080890</v>
@@ -17497,7 +17497,7 @@
     </row>
     <row r="1509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1509" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B1509">
         <v>14199934</v>
@@ -17505,7 +17505,7 @@
     </row>
     <row r="1510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1510" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B1510">
         <v>14664273</v>
@@ -17513,7 +17513,7 @@
     </row>
     <row r="1511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1511" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B1511">
         <v>14288832</v>
@@ -17521,7 +17521,7 @@
     </row>
     <row r="1512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1512" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B1512">
         <v>14734837</v>
@@ -17529,7 +17529,7 @@
     </row>
     <row r="1513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1513" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B1513">
         <v>14713929</v>
@@ -17537,7 +17537,7 @@
     </row>
     <row r="1514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1514" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B1514">
         <v>30171051</v>
@@ -17545,7 +17545,7 @@
     </row>
     <row r="1515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1515" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B1515">
         <v>13532718</v>
@@ -17553,7 +17553,7 @@
     </row>
     <row r="1516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1516" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B1516">
         <v>14595164</v>
@@ -17561,7 +17561,7 @@
     </row>
     <row r="1517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1517" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B1517">
         <v>12976430</v>
@@ -17569,7 +17569,7 @@
     </row>
     <row r="1518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1518" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B1518">
         <v>14437153</v>
@@ -17577,7 +17577,7 @@
     </row>
     <row r="1519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1519" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B1519">
         <v>14306191</v>
@@ -17585,7 +17585,7 @@
     </row>
     <row r="1520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1520" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B1520">
         <v>14712306</v>
@@ -17593,7 +17593,7 @@
     </row>
     <row r="1521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1521" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B1521">
         <v>14628528</v>
@@ -17601,7 +17601,7 @@
     </row>
     <row r="1522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1522" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B1522">
         <v>14008738</v>
@@ -17609,7 +17609,7 @@
     </row>
     <row r="1523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1523" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B1523">
         <v>14976675</v>
@@ -17617,7 +17617,7 @@
     </row>
     <row r="1524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1524" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B1524">
         <v>13710327</v>
@@ -17625,7 +17625,7 @@
     </row>
     <row r="1525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1525" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B1525">
         <v>14580936</v>
@@ -17633,7 +17633,7 @@
     </row>
     <row r="1526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1526" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B1526">
         <v>14918360</v>
@@ -17641,7 +17641,7 @@
     </row>
     <row r="1527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1527" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B1527">
         <v>15078231</v>
@@ -17649,7 +17649,7 @@
     </row>
     <row r="1528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1528" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B1528">
         <v>15004380</v>
@@ -17657,7 +17657,7 @@
     </row>
     <row r="1529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1529" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B1529">
         <v>13964104</v>
@@ -17665,7 +17665,7 @@
     </row>
     <row r="1530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1530" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B1530">
         <v>14228953</v>
@@ -17673,7 +17673,7 @@
     </row>
     <row r="1531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1531" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B1531">
         <v>14210859</v>
@@ -17681,7 +17681,7 @@
     </row>
     <row r="1532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1532" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B1532">
         <v>14821340</v>
@@ -17689,7 +17689,7 @@
     </row>
     <row r="1533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1533" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B1533">
         <v>14896102</v>
@@ -17697,7 +17697,7 @@
     </row>
     <row r="1534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1534" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B1534">
         <v>14325305</v>
@@ -17705,7 +17705,7 @@
     </row>
     <row r="1535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1535" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B1535">
         <v>15087714</v>
@@ -17713,7 +17713,7 @@
     </row>
     <row r="1536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1536" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B1536">
         <v>15085198</v>
@@ -17721,7 +17721,7 @@
     </row>
     <row r="1537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1537" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B1537">
         <v>14748041</v>
@@ -17729,7 +17729,7 @@
     </row>
     <row r="1538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1538" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B1538">
         <v>15027495</v>
@@ -17737,7 +17737,7 @@
     </row>
     <row r="1539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1539" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B1539">
         <v>14136604</v>
@@ -17745,7 +17745,7 @@
     </row>
     <row r="1540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1540" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B1540">
         <v>14819498</v>
@@ -17753,7 +17753,7 @@
     </row>
     <row r="1541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1541" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B1541">
         <v>15040347</v>
@@ -17761,7 +17761,7 @@
     </row>
     <row r="1542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1542" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B1542">
         <v>13593305</v>
@@ -17769,7 +17769,7 @@
     </row>
     <row r="1543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1543" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B1543">
         <v>14347207</v>
@@ -17777,7 +17777,7 @@
     </row>
     <row r="1544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1544" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B1544">
         <v>15162956</v>
@@ -17785,7 +17785,7 @@
     </row>
     <row r="1545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1545" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B1545">
         <v>14903060</v>
@@ -17793,7 +17793,7 @@
     </row>
     <row r="1546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1546" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B1546">
         <v>15042458</v>
@@ -17801,7 +17801,7 @@
     </row>
     <row r="1547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1547" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B1547">
         <v>15274029</v>
@@ -17809,7 +17809,7 @@
     </row>
     <row r="1548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1548" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B1548">
         <v>12826081</v>
@@ -17817,7 +17817,7 @@
     </row>
     <row r="1549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1549" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B1549">
         <v>14513104</v>
@@ -17825,7 +17825,7 @@
     </row>
     <row r="1550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1550" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B1550">
         <v>14027214</v>
@@ -17833,7 +17833,7 @@
     </row>
     <row r="1551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1551" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B1551">
         <v>15027708</v>
@@ -17841,7 +17841,7 @@
     </row>
     <row r="1552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1552" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B1552">
         <v>14664156</v>
@@ -17849,7 +17849,7 @@
     </row>
     <row r="1553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1553" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B1553">
         <v>15196217</v>
@@ -17857,7 +17857,7 @@
     </row>
     <row r="1554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1554" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B1554">
         <v>15113755</v>
@@ -17865,7 +17865,7 @@
     </row>
     <row r="1555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1555" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B1555">
         <v>14365120</v>
@@ -17873,7 +17873,7 @@
     </row>
     <row r="1556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1556" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B1556">
         <v>14537523</v>
@@ -17881,7 +17881,7 @@
     </row>
     <row r="1557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1557" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B1557">
         <v>14249626</v>
@@ -17889,7 +17889,7 @@
     </row>
     <row r="1558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1558" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B1558">
         <v>13823738</v>
@@ -17897,7 +17897,7 @@
     </row>
     <row r="1559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1559" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B1559">
         <v>14783341</v>
@@ -17905,7 +17905,7 @@
     </row>
     <row r="1560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1560" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B1560">
         <v>13946085</v>
@@ -17913,7 +17913,7 @@
     </row>
     <row r="1561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1561" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B1561">
         <v>14351158</v>
@@ -17921,7 +17921,7 @@
     </row>
     <row r="1562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1562" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B1562">
         <v>14940933</v>
@@ -17929,7 +17929,7 @@
     </row>
     <row r="1563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1563" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B1563">
         <v>14818233</v>
@@ -17937,7 +17937,7 @@
     </row>
     <row r="1564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1564" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B1564">
         <v>14972423</v>
@@ -17945,7 +17945,7 @@
     </row>
     <row r="1565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1565" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B1565">
         <v>15025002</v>
@@ -17953,7 +17953,7 @@
     </row>
     <row r="1566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1566" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B1566">
         <v>14599741</v>
@@ -17961,7 +17961,7 @@
     </row>
     <row r="1567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1567" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B1567">
         <v>14311675</v>
@@ -17969,7 +17969,7 @@
     </row>
     <row r="1568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1568" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B1568">
         <v>14264204</v>
@@ -17977,7 +17977,7 @@
     </row>
     <row r="1569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1569" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B1569">
         <v>15079397</v>
@@ -17985,7 +17985,7 @@
     </row>
     <row r="1570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1570" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B1570">
         <v>15059749</v>
@@ -17993,7 +17993,7 @@
     </row>
     <row r="1571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1571" t="s">
-        <v>1567</v>
+        <v>1689</v>
       </c>
       <c r="B1571">
         <v>13846409</v>
@@ -18001,7 +18001,7 @@
     </row>
     <row r="1572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1572" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="B1572">
         <v>14647312</v>
@@ -18009,7 +18009,7 @@
     </row>
     <row r="1573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1573" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="B1573">
         <v>15067158</v>
@@ -18017,7 +18017,7 @@
     </row>
     <row r="1574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1574" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="B1574">
         <v>14053403</v>
@@ -18025,7 +18025,7 @@
     </row>
     <row r="1575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1575" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="B1575">
         <v>14308256</v>
@@ -18033,7 +18033,7 @@
     </row>
     <row r="1576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1576" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="B1576">
         <v>14355101</v>
@@ -18041,7 +18041,7 @@
     </row>
     <row r="1577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1577" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="B1577">
         <v>14600738</v>
@@ -18049,7 +18049,7 @@
     </row>
     <row r="1578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1578" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="B1578">
         <v>14295464</v>
@@ -18057,7 +18057,7 @@
     </row>
     <row r="1579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1579" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="B1579">
         <v>13844632</v>
@@ -18065,7 +18065,7 @@
     </row>
     <row r="1580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1580" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="B1580">
         <v>31126026</v>
@@ -18073,7 +18073,7 @@
     </row>
     <row r="1581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1581" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="B1581">
         <v>14755050</v>
@@ -18081,7 +18081,7 @@
     </row>
     <row r="1582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1582" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="B1582">
         <v>15156653</v>
@@ -18089,7 +18089,7 @@
     </row>
     <row r="1583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1583" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="B1583">
         <v>14403749</v>
@@ -18097,7 +18097,7 @@
     </row>
     <row r="1584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1584" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="B1584">
         <v>14666374</v>
@@ -18105,7 +18105,7 @@
     </row>
     <row r="1585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1585" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="B1585">
         <v>14783794</v>
@@ -18113,7 +18113,7 @@
     </row>
     <row r="1586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1586" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="B1586">
         <v>13500656</v>
@@ -18121,7 +18121,7 @@
     </row>
     <row r="1587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1587" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="B1587">
         <v>14385122</v>
@@ -18129,7 +18129,7 @@
     </row>
     <row r="1588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1588" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="B1588">
         <v>14976061</v>
@@ -18137,7 +18137,7 @@
     </row>
     <row r="1589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1589" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B1589">
         <v>14365091</v>
@@ -18145,7 +18145,7 @@
     </row>
     <row r="1590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1590" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="B1590">
         <v>14898952</v>
@@ -18153,7 +18153,7 @@
     </row>
     <row r="1591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1591" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="B1591">
         <v>14081484</v>
@@ -18161,7 +18161,7 @@
     </row>
     <row r="1592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1592" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="B1592">
         <v>14253081</v>
@@ -18169,7 +18169,7 @@
     </row>
     <row r="1593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1593" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="B1593">
         <v>14180488</v>
@@ -18177,7 +18177,7 @@
     </row>
     <row r="1594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1594" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="B1594">
         <v>15032626</v>
@@ -18185,7 +18185,7 @@
     </row>
     <row r="1595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1595" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="B1595">
         <v>24099330</v>
@@ -18193,7 +18193,7 @@
     </row>
     <row r="1596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1596" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="B1596">
         <v>15167020</v>
@@ -18201,7 +18201,7 @@
     </row>
     <row r="1597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1597" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="B1597">
         <v>13916927</v>
@@ -18209,7 +18209,7 @@
     </row>
     <row r="1598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1598" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="B1598">
         <v>14656599</v>
@@ -18217,7 +18217,7 @@
     </row>
     <row r="1599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1599" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B1599">
         <v>14758074</v>
@@ -18225,7 +18225,7 @@
     </row>
     <row r="1600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1600" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="B1600">
         <v>14242307</v>
@@ -18233,7 +18233,7 @@
     </row>
     <row r="1601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1601" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="B1601">
         <v>14313220</v>
@@ -18241,7 +18241,7 @@
     </row>
     <row r="1602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1602" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="B1602">
         <v>14696843</v>
@@ -18249,7 +18249,7 @@
     </row>
     <row r="1603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1603" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="B1603">
         <v>14891380</v>
@@ -18257,7 +18257,7 @@
     </row>
     <row r="1604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1604" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="B1604">
         <v>24099659</v>
@@ -18265,7 +18265,7 @@
     </row>
     <row r="1605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1605" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="B1605">
         <v>14548857</v>
@@ -18273,7 +18273,7 @@
     </row>
     <row r="1606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1606" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="B1606">
         <v>15162142</v>
@@ -18281,7 +18281,7 @@
     </row>
     <row r="1607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1607" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="B1607">
         <v>14132834</v>
@@ -18289,7 +18289,7 @@
     </row>
     <row r="1608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1608" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="B1608">
         <v>14776278</v>
@@ -18297,7 +18297,7 @@
     </row>
     <row r="1609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1609" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="B1609">
         <v>14305916</v>
@@ -18305,7 +18305,7 @@
     </row>
     <row r="1610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1610" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="B1610">
         <v>14318801</v>
@@ -18313,7 +18313,7 @@
     </row>
     <row r="1611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1611" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B1611">
         <v>14516939</v>
@@ -18321,7 +18321,7 @@
     </row>
     <row r="1612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1612" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="B1612">
         <v>14406730</v>
@@ -18329,7 +18329,7 @@
     </row>
     <row r="1613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1613" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="B1613">
         <v>14760594</v>
@@ -18337,7 +18337,7 @@
     </row>
     <row r="1614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1614" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="B1614">
         <v>14311561</v>
@@ -18345,7 +18345,7 @@
     </row>
     <row r="1615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1615" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="B1615">
         <v>14958933</v>
@@ -18353,7 +18353,7 @@
     </row>
     <row r="1616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1616" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="B1616">
         <v>14496110</v>
@@ -18361,7 +18361,7 @@
     </row>
     <row r="1617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1617" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="B1617">
         <v>15172028</v>
@@ -18369,7 +18369,7 @@
     </row>
     <row r="1618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1618" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B1618">
         <v>14189829</v>
@@ -18377,7 +18377,7 @@
     </row>
     <row r="1619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1619" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="B1619">
         <v>14032594</v>
@@ -18385,7 +18385,7 @@
     </row>
     <row r="1620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1620" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="B1620">
         <v>15086519</v>
@@ -18393,7 +18393,7 @@
     </row>
     <row r="1621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1621" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="B1621">
         <v>14406266</v>
@@ -18401,7 +18401,7 @@
     </row>
     <row r="1622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1622" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="B1622">
         <v>15064783</v>
@@ -18409,7 +18409,7 @@
     </row>
     <row r="1623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1623" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="B1623">
         <v>14927577</v>
@@ -18417,7 +18417,7 @@
     </row>
     <row r="1624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1624" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="B1624">
         <v>13987643</v>
@@ -18425,7 +18425,7 @@
     </row>
     <row r="1625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1625" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="B1625">
         <v>14911251</v>
@@ -18433,7 +18433,7 @@
     </row>
     <row r="1626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1626" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="B1626">
         <v>14315727</v>
@@ -18441,7 +18441,7 @@
     </row>
     <row r="1627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1627" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1627">
         <v>24062432</v>
@@ -18449,7 +18449,7 @@
     </row>
     <row r="1628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1628" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="B1628">
         <v>14231355</v>
@@ -18457,7 +18457,7 @@
     </row>
     <row r="1629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1629" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="B1629">
         <v>14937460</v>
@@ -18465,7 +18465,7 @@
     </row>
     <row r="1630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1630" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="B1630">
         <v>15011864</v>
@@ -18473,7 +18473,7 @@
     </row>
     <row r="1631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1631" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="B1631">
         <v>14410027</v>
@@ -18481,7 +18481,7 @@
     </row>
     <row r="1632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1632" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="B1632">
         <v>15151427</v>
@@ -18489,7 +18489,7 @@
     </row>
     <row r="1633" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1633" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="B1633">
         <v>14166396</v>
@@ -18497,7 +18497,7 @@
     </row>
     <row r="1634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1634" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="B1634">
         <v>14539121</v>
@@ -18505,7 +18505,7 @@
     </row>
     <row r="1635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1635" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="B1635">
         <v>14947836</v>
@@ -18513,7 +18513,7 @@
     </row>
     <row r="1636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1636" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="B1636">
         <v>14705725</v>
@@ -18521,7 +18521,7 @@
     </row>
     <row r="1637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1637" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="B1637">
         <v>14544725</v>
@@ -18529,7 +18529,7 @@
     </row>
     <row r="1638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1638" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="B1638">
         <v>15154436</v>
@@ -18537,7 +18537,7 @@
     </row>
     <row r="1639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1639" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="B1639">
         <v>15155374</v>
@@ -18545,7 +18545,7 @@
     </row>
     <row r="1640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1640" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="B1640">
         <v>15110337</v>
@@ -18553,7 +18553,7 @@
     </row>
     <row r="1641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1641" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="B1641">
         <v>13812587</v>
@@ -18561,7 +18561,7 @@
     </row>
     <row r="1642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1642" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="B1642">
         <v>13558949</v>
@@ -18569,7 +18569,7 @@
     </row>
     <row r="1643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1643" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="B1643">
         <v>15196256</v>
@@ -18577,7 +18577,7 @@
     </row>
     <row r="1644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1644" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="B1644">
         <v>13660111</v>
@@ -18585,7 +18585,7 @@
     </row>
     <row r="1645" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1645" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="B1645">
         <v>14871018</v>
@@ -18593,7 +18593,7 @@
     </row>
     <row r="1646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1646" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="B1646">
         <v>14384421</v>
@@ -18601,7 +18601,7 @@
     </row>
     <row r="1647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1647" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="B1647">
         <v>14182913</v>
@@ -18609,7 +18609,7 @@
     </row>
     <row r="1648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1648" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="B1648">
         <v>14790226</v>
@@ -18617,7 +18617,7 @@
     </row>
     <row r="1649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1649" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="B1649">
         <v>13636628</v>
@@ -18625,7 +18625,7 @@
     </row>
     <row r="1650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1650" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="B1650">
         <v>14833331</v>
@@ -18633,7 +18633,7 @@
     </row>
     <row r="1651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1651" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="B1651">
         <v>14104579</v>
@@ -18641,7 +18641,7 @@
     </row>
     <row r="1652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1652" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="B1652">
         <v>15061134</v>
@@ -18649,7 +18649,7 @@
     </row>
     <row r="1653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1653" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="B1653">
         <v>14891552</v>
@@ -18657,7 +18657,7 @@
     </row>
     <row r="1654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1654" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="B1654">
         <v>14674975</v>
@@ -18665,7 +18665,7 @@
     </row>
     <row r="1655" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1655" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="B1655">
         <v>15071742</v>
@@ -18673,7 +18673,7 @@
     </row>
     <row r="1656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1656" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="B1656">
         <v>13660780</v>
@@ -18681,7 +18681,7 @@
     </row>
     <row r="1657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1657" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="B1657">
         <v>15111508</v>
@@ -18689,7 +18689,7 @@
     </row>
     <row r="1658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1658" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="B1658">
         <v>15070046</v>
@@ -18697,7 +18697,7 @@
     </row>
     <row r="1659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1659" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="B1659">
         <v>14702213</v>
@@ -18705,7 +18705,7 @@
     </row>
     <row r="1660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1660" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="B1660">
         <v>13936809</v>
@@ -18713,7 +18713,7 @@
     </row>
     <row r="1661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1661" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="B1661">
         <v>14694230</v>
@@ -18721,7 +18721,7 @@
     </row>
     <row r="1662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1662" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="B1662">
         <v>14959022</v>
@@ -18729,7 +18729,7 @@
     </row>
     <row r="1663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1663" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="B1663">
         <v>13934731</v>
@@ -18737,7 +18737,7 @@
     </row>
     <row r="1664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1664" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="B1664">
         <v>15079299</v>
@@ -18745,7 +18745,7 @@
     </row>
     <row r="1665" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1665" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="B1665">
         <v>14751500</v>
@@ -18753,7 +18753,7 @@
     </row>
     <row r="1666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1666" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="B1666">
         <v>14410536</v>
@@ -18761,7 +18761,7 @@
     </row>
     <row r="1667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1667" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="B1667">
         <v>14814112</v>
@@ -18769,7 +18769,7 @@
     </row>
     <row r="1668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1668" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="B1668">
         <v>31318676</v>
@@ -18777,7 +18777,7 @@
     </row>
     <row r="1669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1669" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="B1669">
         <v>31410099</v>
@@ -18785,7 +18785,7 @@
     </row>
     <row r="1670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1670" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="B1670">
         <v>15343402</v>
@@ -18793,7 +18793,7 @@
     </row>
     <row r="1671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1671" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="B1671">
         <v>14286731</v>
@@ -18801,7 +18801,7 @@
     </row>
     <row r="1672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1672" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="B1672">
         <v>14899188</v>
@@ -18809,7 +18809,7 @@
     </row>
     <row r="1673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1673" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="B1673">
         <v>14547517</v>
@@ -18817,7 +18817,7 @@
     </row>
     <row r="1674" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1674" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="B1674">
         <v>14705296</v>
@@ -18825,7 +18825,7 @@
     </row>
     <row r="1675" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1675" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="B1675">
         <v>15080811</v>
@@ -18833,7 +18833,7 @@
     </row>
     <row r="1676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1676" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="B1676">
         <v>14203385</v>
@@ -18841,7 +18841,7 @@
     </row>
     <row r="1677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1677" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="B1677">
         <v>13888396</v>
@@ -18849,7 +18849,7 @@
     </row>
     <row r="1678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1678" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="B1678">
         <v>14788345</v>
@@ -18857,7 +18857,7 @@
     </row>
     <row r="1679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1679" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="B1679">
         <v>14699907</v>
@@ -18865,7 +18865,7 @@
     </row>
     <row r="1680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1680" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="B1680">
         <v>15141473</v>
@@ -18873,7 +18873,7 @@
     </row>
     <row r="1681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1681" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="B1681">
         <v>15229828</v>
@@ -18881,7 +18881,7 @@
     </row>
     <row r="1682" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1682" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="B1682">
         <v>14379038</v>
@@ -18889,7 +18889,7 @@
     </row>
     <row r="1683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1683" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="B1683">
         <v>14957598</v>
@@ -18897,7 +18897,7 @@
     </row>
     <row r="1684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1684" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="B1684">
         <v>14710131</v>
@@ -18905,7 +18905,7 @@
     </row>
     <row r="1685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1685" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="B1685">
         <v>13749618</v>
@@ -18913,7 +18913,7 @@
     </row>
     <row r="1686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1686" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="B1686">
         <v>14536533</v>
@@ -18921,7 +18921,7 @@
     </row>
     <row r="1687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1687" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="B1687">
         <v>13865235</v>
@@ -18929,7 +18929,7 @@
     </row>
     <row r="1688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1688" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="B1688">
         <v>14435793</v>
@@ -18937,7 +18937,7 @@
     </row>
     <row r="1689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1689" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="B1689">
         <v>14301244</v>
